--- a/20_営業/07_会計/TE030/T_TE030_CFO_014_A02_02_情報系システムへのデータ連携（部門別予算）_OIC統合.xlsx
+++ b/20_営業/07_会計/TE030/T_TE030_CFO_014_A02_02_情報系システムへのデータ連携（部門別予算）_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\16_単体テスト実施\外部結合完了時\OIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -27,14 +27,16 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ8)" sheetId="16" r:id="rId13"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ9)" sheetId="17" r:id="rId14"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ10)" sheetId="18" r:id="rId15"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId16"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId17"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ11)" sheetId="19" r:id="rId16"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId17"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_データ・プロファイル!$A$1:$C$82</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'テスト仕様_テスト結果(テスト・シナリオ10)'!$A$1:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'テスト仕様_テスト結果(テスト・シナリオ11)'!$A$1:$I$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ3) '!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$47</definedName>
@@ -45,9 +47,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">'テスト仕様_テスト結果(テスト・シナリオ9)'!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="252">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -1553,17 +1555,189 @@
   <si>
     <t>Issue化</t>
   </si>
+  <si>
+    <t>Issue1.1</t>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="9">
+      <t>サトウユウキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シナリオ11</t>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(プロファイル値参照)
+・今回処理実行日取得</t>
+    <rPh sb="21" eb="23">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ジッコウビ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD001(プロファイル値更新)
+・前回処理実行日時更新</t>
+    <rPh sb="21" eb="23">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①、②左記の通り</t>
+    <rPh sb="3" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>11-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ11</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>T_TE030_CFO_014_A02_02_情報系システムへのデータ連携（部門別予算）_OIC統合_エビデンス(シナリオ11).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO014A02_02を実行する。
+OIC3アップグレードの影響でDBへのCUIDを実行するアクティビティまたは共通関数を呼び出すアクティビティの実行に影響が出ていないことを確認する。</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO014A02_02(情報系システムへのデータ連携(部門別予算))</t>
+    <rPh sb="15" eb="18">
+      <t>ジョウホウケイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ブモンベツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヨサン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO014A02_02から共通処理XXCCD002が実行され、正常終了する。</t>
+    <rPh sb="16" eb="20">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①XXCFO014A02_02から共通処理XXCCD001が実行され、正常終了する。
+②プロファイルオプション値テーブルが更新される。</t>
+    <rPh sb="17" eb="21">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{
+  "processId": 1115589
+}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1744,6 +1918,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1794,7 +1983,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -2391,6 +2580,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2404,7 +2604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2760,6 +2960,24 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2807,6 +3025,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -4544,6 +4763,731 @@
         <a:xfrm>
           <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30495240"/>
+          <a:ext cx="6939915" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33196530"/>
+          <a:ext cx="6939915" cy="2806065"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29676090"/>
+          <a:ext cx="3303270" cy="459105"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -10688,7 +11632,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -11013,7 +11957,7 @@
     <col min="16134" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1">
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -11021,7 +11965,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -11030,7 +11974,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -11039,67 +11983,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="129" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1">
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1">
+    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="130" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1">
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="130" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="130" t="s">
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -11107,11 +12051,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1">
+    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -11119,23 +12063,23 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1">
+    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>44984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>72</v>
       </c>
@@ -11143,25 +12087,25 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1">
+    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1">
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -11173,7 +12117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -11211,7 +12155,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -11224,7 +12168,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -11235,35 +12179,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>40</v>
       </c>
@@ -11289,7 +12233,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>117</v>
@@ -11304,7 +12248,7 @@
       <c r="H11" s="115"/>
       <c r="I11" s="119"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>119</v>
       </c>
@@ -11330,7 +12274,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -11350,7 +12294,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -11370,7 +12314,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -11390,7 +12334,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="63">
+    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -11411,7 +12355,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64" t="s">
         <v>122</v>
@@ -11438,7 +12382,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="63">
+    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -11458,7 +12402,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="94.5">
+    <row r="19" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -11478,7 +12422,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="52.5">
+    <row r="20" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -11498,7 +12442,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="63">
+    <row r="21" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -11518,7 +12462,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="63">
+    <row r="22" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -11538,7 +12482,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -11548,7 +12492,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -11558,7 +12502,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -11568,7 +12512,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -11578,7 +12522,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -11588,7 +12532,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -11598,7 +12542,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -11608,7 +12552,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -11618,7 +12562,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -11628,7 +12572,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -11638,7 +12582,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>48</v>
       </c>
@@ -11648,7 +12592,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -11658,7 +12602,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -11668,7 +12612,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -11678,7 +12622,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -11688,7 +12632,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -11698,7 +12642,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -11716,7 +12660,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11734,7 +12678,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -11747,7 +12691,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -11758,35 +12702,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>40</v>
       </c>
@@ -11812,7 +12756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="73.5">
+    <row r="11" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>125</v>
@@ -11839,7 +12783,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="63">
+    <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B12" s="64"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -11859,7 +12803,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="42">
+    <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -11879,7 +12823,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -11899,7 +12843,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="63">
+    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -11919,7 +12863,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -11930,7 +12874,7 @@
       <c r="H16" s="57"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="118"/>
       <c r="C17" s="46"/>
@@ -11941,7 +12885,7 @@
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="118"/>
       <c r="C18" s="46"/>
       <c r="D18" s="116"/>
@@ -11951,7 +12895,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="118"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -11961,7 +12905,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -11971,7 +12915,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -11981,7 +12925,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -11991,7 +12935,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -12001,7 +12945,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="114"/>
       <c r="D24" s="46"/>
@@ -12011,7 +12955,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -12021,7 +12965,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -12031,7 +12975,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -12041,7 +12985,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -12051,7 +12995,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -12061,7 +13005,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -12071,7 +13015,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -12081,7 +13025,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -12091,7 +13035,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>48</v>
       </c>
@@ -12101,7 +13045,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -12111,7 +13055,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -12121,7 +13065,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -12131,7 +13075,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -12141,7 +13085,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -12151,7 +13095,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -12169,7 +13113,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12187,7 +13131,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -12200,7 +13144,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -12211,35 +13155,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>40</v>
       </c>
@@ -12265,7 +13209,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="73.5">
+    <row r="11" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>127</v>
@@ -12292,7 +13236,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="63">
+    <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B12" s="64"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -12312,7 +13256,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="42">
+    <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -12332,7 +13276,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -12352,7 +13296,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="63">
+    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -12372,7 +13316,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -12383,7 +13327,7 @@
       <c r="H16" s="57"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="118"/>
       <c r="C17" s="46"/>
@@ -12394,7 +13338,7 @@
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="118"/>
       <c r="C18" s="46"/>
       <c r="D18" s="116"/>
@@ -12404,7 +13348,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="118"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -12414,7 +13358,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -12424,7 +13368,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -12434,7 +13378,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -12444,7 +13388,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -12454,7 +13398,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="114"/>
       <c r="D24" s="46"/>
@@ -12464,7 +13408,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -12474,7 +13418,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -12484,7 +13428,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -12494,7 +13438,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -12504,7 +13448,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="72"/>
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
@@ -12514,7 +13458,7 @@
       <c r="H29" s="47"/>
       <c r="I29" s="77"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -12524,7 +13468,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -12534,7 +13478,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="6" customHeight="1">
+    <row r="32" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -12544,7 +13488,7 @@
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
         <v>48</v>
       </c>
@@ -12554,7 +13498,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -12564,7 +13508,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -12574,7 +13518,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -12584,7 +13528,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -12594,7 +13538,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -12604,7 +13548,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -12622,7 +13566,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -12641,7 +13585,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -12654,7 +13598,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -12665,35 +13609,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>40</v>
       </c>
@@ -12719,7 +13663,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>161</v>
@@ -12734,7 +13678,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>163</v>
@@ -12761,7 +13705,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -12782,7 +13726,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="94.5">
+    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -12802,7 +13746,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -12823,7 +13767,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="63">
+    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -12843,7 +13787,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="63">
+    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -12863,7 +13807,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="105">
+    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -12883,7 +13827,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -12893,7 +13837,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -12903,7 +13847,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -12914,7 +13858,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -12925,7 +13869,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -12935,7 +13879,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -12946,7 +13890,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -12957,7 +13901,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -12967,7 +13911,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -12977,7 +13921,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -12987,7 +13931,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -12997,7 +13941,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -13007,7 +13951,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -13017,7 +13961,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="114"/>
       <c r="D32" s="46"/>
@@ -13027,7 +13971,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -13037,7 +13981,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -13047,7 +13991,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -13057,7 +14001,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="68"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -13067,7 +14011,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="72"/>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -13077,7 +14021,7 @@
       <c r="H37" s="47"/>
       <c r="I37" s="77"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -13087,7 +14031,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -13097,7 +14041,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="6" customHeight="1">
+    <row r="40" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -13107,7 +14051,7 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>167</v>
       </c>
@@ -13117,7 +14061,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -13127,7 +14071,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="120"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -13137,7 +14081,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -13147,7 +14091,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -13157,7 +14101,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -13167,7 +14111,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -13185,7 +14129,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -13204,7 +14148,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -13217,7 +14161,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -13228,35 +14172,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>170</v>
       </c>
@@ -13282,7 +14226,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>172</v>
@@ -13297,7 +14241,7 @@
       <c r="H11" s="115"/>
       <c r="I11" s="119"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>174</v>
       </c>
@@ -13323,7 +14267,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -13343,7 +14287,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="84">
+    <row r="14" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="114"/>
       <c r="D14" s="46"/>
@@ -13363,7 +14307,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -13383,7 +14327,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="63">
+    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -13403,7 +14347,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="42">
+    <row r="17" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -13423,7 +14367,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="105">
+    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -13444,7 +14388,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
@@ -13455,7 +14399,7 @@
       <c r="H19" s="57"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="116"/>
@@ -13465,7 +14409,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -13476,7 +14420,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -13487,7 +14431,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="116"/>
@@ -13497,7 +14441,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -13507,7 +14451,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -13517,7 +14461,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -13527,7 +14471,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -13537,7 +14481,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -13547,7 +14491,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="114"/>
       <c r="D29" s="46"/>
@@ -13557,7 +14501,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -13567,7 +14511,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -13577,7 +14521,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -13587,7 +14531,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -13597,7 +14541,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1">
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="72"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -13607,7 +14551,7 @@
       <c r="H34" s="47"/>
       <c r="I34" s="77"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -13617,7 +14561,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -13627,7 +14571,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" ht="6" customHeight="1">
+    <row r="37" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -13637,7 +14581,7 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>177</v>
       </c>
@@ -13647,7 +14591,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -13657,7 +14601,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -13667,7 +14611,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -13677,7 +14621,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -13687,7 +14631,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -13697,7 +14641,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -13715,7 +14659,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -13734,7 +14678,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -13747,7 +14691,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -13758,35 +14702,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>40</v>
       </c>
@@ -13812,7 +14756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>182</v>
@@ -13827,7 +14771,7 @@
       <c r="H11" s="115"/>
       <c r="I11" s="119"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>184</v>
       </c>
@@ -13853,7 +14797,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
+    <row r="13" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -13873,7 +14817,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -13893,7 +14837,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -13913,7 +14857,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="63">
+    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -13934,7 +14878,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="73.5">
+    <row r="17" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -13954,7 +14898,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="73.5">
+    <row r="18" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B18" s="64" t="s">
         <v>189</v>
       </c>
@@ -13980,7 +14924,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="63">
+    <row r="19" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
@@ -14001,7 +14945,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="94.5">
+    <row r="20" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -14021,7 +14965,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="52.5">
+    <row r="21" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -14041,7 +14985,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="63">
+    <row r="22" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -14061,7 +15005,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="63">
+    <row r="23" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -14081,7 +15025,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="105">
+    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -14101,7 +15045,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="114"/>
       <c r="D25" s="46"/>
@@ -14111,7 +15055,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -14121,7 +15065,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -14131,7 +15075,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -14141,7 +15085,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -14151,7 +15095,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -14161,7 +15105,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -14171,7 +15115,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -14181,7 +15125,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -14191,7 +15135,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>177</v>
       </c>
@@ -14201,7 +15145,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -14211,7 +15155,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -14221,7 +15165,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -14231,7 +15175,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -14241,7 +15185,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -14251,7 +15195,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -14269,7 +15213,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14277,12 +15221,307 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="106" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="134" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="I11" s="78">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="134" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="114" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="I12" s="76">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="134" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="I13" s="76">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="72"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="77"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="120" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G14">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
@@ -14292,7 +15531,7 @@
     <col min="9" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1">
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -14302,51 +15541,51 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="135" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="141" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="137" t="s">
+      <c r="D5" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="137" t="s">
+      <c r="F5" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="133" t="s">
+      <c r="H5" s="139" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="136"/>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="142"/>
       <c r="C6" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="134"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="144"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="140"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="66" t="s">
         <v>70</v>
       </c>
@@ -14357,7 +15596,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="67"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="68"/>
       <c r="C8" s="42"/>
       <c r="D8" s="44"/>
@@ -14366,7 +15605,7 @@
       <c r="G8" s="48"/>
       <c r="H8" s="69"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="68"/>
       <c r="C9" s="46"/>
       <c r="D9" s="42"/>
@@ -14375,7 +15614,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="68"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -14384,7 +15623,7 @@
       <c r="G10" s="48"/>
       <c r="H10" s="69"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="68"/>
       <c r="C11" s="42"/>
       <c r="D11" s="46"/>
@@ -14393,7 +15632,7 @@
       <c r="G11" s="53"/>
       <c r="H11" s="70"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="68"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -14402,7 +15641,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="70"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="68"/>
       <c r="C13" s="42"/>
       <c r="D13" s="54"/>
@@ -14411,7 +15650,7 @@
       <c r="G13" s="48"/>
       <c r="H13" s="71"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="68"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -14420,7 +15659,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="68"/>
       <c r="C15" s="42"/>
       <c r="D15" s="54"/>
@@ -14429,7 +15668,7 @@
       <c r="G15" s="48"/>
       <c r="H15" s="71"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="68"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -14438,7 +15677,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="69"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="68"/>
       <c r="C17" s="42"/>
       <c r="D17" s="54"/>
@@ -14447,7 +15686,7 @@
       <c r="G17" s="48"/>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="68"/>
       <c r="C18" s="46"/>
       <c r="D18" s="42"/>
@@ -14456,7 +15695,7 @@
       <c r="G18" s="52"/>
       <c r="H18" s="69"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="68"/>
       <c r="C19" s="42"/>
       <c r="D19" s="46"/>
@@ -14465,7 +15704,7 @@
       <c r="G19" s="48"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="46"/>
       <c r="D20" s="42"/>
@@ -14474,7 +15713,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="69"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="42"/>
       <c r="D21" s="46"/>
@@ -14483,7 +15722,7 @@
       <c r="G21" s="48"/>
       <c r="H21" s="70"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -14492,7 +15731,7 @@
       <c r="G22" s="52"/>
       <c r="H22" s="69"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="66"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -14501,7 +15740,7 @@
       <c r="G23" s="56"/>
       <c r="H23" s="69"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1">
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="72"/>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -14531,14 +15770,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
@@ -14549,7 +15788,7 @@
     <col min="8" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -14558,25 +15797,25 @@
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
+    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59"/>
       <c r="B7" s="109" t="s">
         <v>59</v>
@@ -14597,7 +15836,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="60"/>
       <c r="C8" s="61"/>
@@ -14606,7 +15845,7 @@
       <c r="F8" s="62"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -14615,23 +15854,23 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="109" t="s">
         <v>59</v>
@@ -14652,7 +15891,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35"/>
       <c r="B15" s="64"/>
       <c r="C15" s="39"/>
@@ -14661,7 +15900,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="65"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35"/>
       <c r="B16" s="64"/>
       <c r="C16" s="39"/>
@@ -14670,7 +15909,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="65"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35"/>
       <c r="B17" s="64"/>
       <c r="C17" s="39"/>
@@ -14679,7 +15918,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="65"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -14703,14 +15942,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="257" width="9" style="15"/>
@@ -14968,7 +16207,7 @@
     <col min="16133" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1">
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -14979,29 +16218,29 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1">
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="98" t="s">
         <v>10</v>
       </c>
@@ -15019,7 +16258,7 @@
       <c r="H7" s="100"/>
       <c r="I7" s="101"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="90">
         <v>44890</v>
       </c>
@@ -15037,7 +16276,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="91"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="90">
         <v>44938</v>
       </c>
@@ -15055,7 +16294,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="91"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="90">
         <v>44984</v>
       </c>
@@ -15073,27 +16312,45 @@
       <c r="H10" s="23"/>
       <c r="I10" s="91"/>
     </row>
-    <row r="11" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B11" s="92"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="97"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="13" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="129">
+        <v>45561</v>
+      </c>
+      <c r="C11" s="130" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="131" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="132" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="97"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -15114,7 +16371,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
     <col min="14" max="256" width="9" style="27"/>
@@ -15246,7 +16503,7 @@
     <col min="16142" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -15261,156 +16518,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="38" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="38" t="s">
         <v>79</v>
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1">
+    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>25</v>
       </c>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>28</v>
       </c>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="27" t="s">
         <v>30</v>
       </c>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M37" s="30"/>
     </row>
   </sheetData>
@@ -15428,13 +16685,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="82"/>
     <col min="4" max="4" width="22.125" style="82" customWidth="1"/>
@@ -15443,7 +16701,7 @@
     <col min="7" max="16384" width="2.75" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1">
+    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="81"/>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -15451,7 +16709,7 @@
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="80" t="s">
         <v>71</v>
       </c>
@@ -15461,7 +16719,7 @@
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="83"/>
@@ -15469,7 +16727,7 @@
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
     </row>
-    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -15479,7 +16737,7 @@
       <c r="E4" s="84"/>
       <c r="F4" s="84"/>
     </row>
-    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -15487,7 +16745,7 @@
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="1:6" s="85" customFormat="1" ht="12">
+    <row r="6" spans="1:6" s="85" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
@@ -15499,7 +16757,7 @@
       </c>
       <c r="F6" s="84"/>
     </row>
-    <row r="7" spans="1:6" s="85" customFormat="1">
+    <row r="7" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
@@ -15511,7 +16769,7 @@
       </c>
       <c r="F7" s="84"/>
     </row>
-    <row r="8" spans="1:6" s="85" customFormat="1">
+    <row r="8" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
@@ -15523,7 +16781,7 @@
       </c>
       <c r="F8" s="84"/>
     </row>
-    <row r="9" spans="1:6" s="85" customFormat="1">
+    <row r="9" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="84"/>
@@ -15535,7 +16793,7 @@
       </c>
       <c r="F9" s="84"/>
     </row>
-    <row r="10" spans="1:6" s="85" customFormat="1">
+    <row r="10" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="84"/>
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
@@ -15547,7 +16805,7 @@
       </c>
       <c r="F10" s="84"/>
     </row>
-    <row r="11" spans="1:6" s="85" customFormat="1">
+    <row r="11" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
@@ -15559,7 +16817,7 @@
       </c>
       <c r="F11" s="84"/>
     </row>
-    <row r="12" spans="1:6" s="85" customFormat="1">
+    <row r="12" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="84"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
@@ -15571,7 +16829,7 @@
       </c>
       <c r="F12" s="84"/>
     </row>
-    <row r="13" spans="1:6" s="85" customFormat="1">
+    <row r="13" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -15583,7 +16841,7 @@
       </c>
       <c r="F13" s="84"/>
     </row>
-    <row r="14" spans="1:6" s="85" customFormat="1">
+    <row r="14" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
@@ -15595,7 +16853,7 @@
       </c>
       <c r="F14" s="84"/>
     </row>
-    <row r="15" spans="1:6" s="85" customFormat="1">
+    <row r="15" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
@@ -15607,7 +16865,7 @@
       </c>
       <c r="F15" s="84"/>
     </row>
-    <row r="16" spans="1:6" s="85" customFormat="1">
+    <row r="16" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="84"/>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
@@ -15619,29 +16877,41 @@
       </c>
       <c r="F16" s="84"/>
     </row>
-    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1">
-      <c r="A17" s="87"/>
+    <row r="17" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="84"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
+      <c r="D17" s="117" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="133" t="s">
+        <v>234</v>
+      </c>
       <c r="F17" s="84"/>
     </row>
-    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-    </row>
-    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25">
-      <c r="A19" s="87"/>
+    <row r="18" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="87"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="84"/>
+    </row>
+    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="84"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="87"/>
+    </row>
+    <row r="20" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -15656,9 +16926,10 @@
     <hyperlink ref="D14" location="'テスト仕様_テスト結果(テスト・シナリオ8)'!A1" display="シナリオ8"/>
     <hyperlink ref="D15" location="'テスト仕様_テスト結果(テスト・シナリオ9)'!A1" display="シナリオ9"/>
     <hyperlink ref="D16" location="'テスト仕様_テスト結果(テスト・シナリオ10)'!A1" display="シナリオ10"/>
+    <hyperlink ref="D17" location="'テスト仕様_テスト結果(テスト・シナリオ11)'!A1" display="シナリオ11"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;8&amp;F&amp;R&amp;8XXX構築プロジェクト
 &lt;YYYY/MM/DD&gt;</oddHeader>
@@ -15675,7 +16946,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
@@ -15683,85 +16954,85 @@
     <col min="4" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="6" customHeight="1">
+    <row r="1" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="121" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="25.5" customHeight="1">
+    <row r="7" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="33" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="132" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="138" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="132"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="138"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="34"/>
     </row>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1">
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="33" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1">
-      <c r="B11" s="131" t="s">
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="137" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="132"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="131" t="s">
+      <c r="C11" s="138"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="137" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="132"/>
-    </row>
-    <row r="13" spans="1:3" s="113" customFormat="1">
+      <c r="C12" s="138"/>
+    </row>
+    <row r="13" spans="1:3" s="113" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
       <c r="B13" s="122"/>
       <c r="C13" s="123"/>
     </row>
-    <row r="14" spans="1:3" s="113" customFormat="1">
+    <row r="14" spans="1:3" s="113" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
       <c r="B14" s="34"/>
       <c r="C14" s="27"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" s="34" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" s="33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" s="122"/>
       <c r="C17" s="123"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="113"/>
       <c r="B18" s="122" t="s">
         <v>203</v>
@@ -15770,25 +17041,25 @@
         <v>1115589</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="113"/>
       <c r="B19" s="33"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" s="34" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" s="33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" s="124"/>
       <c r="C22" s="124"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" s="122" t="s">
         <v>216</v>
       </c>
@@ -15796,24 +17067,24 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B24" s="33"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" s="34" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" s="124"/>
       <c r="C27" s="124"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" s="122" t="s">
         <v>216</v>
       </c>
@@ -15821,24 +17092,24 @@
         <v>1115595</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" s="33"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" s="34" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" s="124"/>
       <c r="C32" s="124"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="122" t="s">
         <v>216</v>
       </c>
@@ -15846,24 +17117,24 @@
         <v>1115571</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="33"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="34" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" s="33" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" s="124"/>
       <c r="C37" s="124"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" s="122" t="s">
         <v>216</v>
       </c>
@@ -15871,13 +17142,13 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" s="33" t="s">
         <v>103</v>
       </c>
       <c r="C40" s="124"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B41" s="122" t="s">
         <v>104</v>
       </c>
@@ -15885,24 +17156,24 @@
         <v>218</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" s="34"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" s="34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" s="33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" s="122"/>
       <c r="C45" s="123"/>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B46" s="122" t="s">
         <v>102</v>
       </c>
@@ -15910,24 +17181,24 @@
         <v>1115589</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B47" s="34"/>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B48" s="34" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B49" s="33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B50" s="122"/>
       <c r="C50" s="123"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B51" s="122" t="s">
         <v>220</v>
       </c>
@@ -15935,25 +17206,25 @@
         <v>1115589</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B53" s="34" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B54" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.25" thickBot="1">
+    <row r="55" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B55" s="122"/>
       <c r="C55" s="123"/>
     </row>
-    <row r="56" spans="1:3" ht="14.25" thickBot="1">
+    <row r="56" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B56" s="126" t="s">
         <v>205</v>
       </c>
@@ -15961,7 +17232,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21.75" thickBot="1">
+    <row r="57" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="113"/>
       <c r="B57" s="128" t="s">
         <v>221</v>
@@ -15970,32 +17241,32 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B58" s="33"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B59" s="33" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B60" s="33"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B61" s="34" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B62" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.25" thickBot="1">
+    <row r="63" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B63" s="122"/>
       <c r="C63" s="123"/>
     </row>
-    <row r="64" spans="1:3" ht="14.25" thickBot="1">
+    <row r="64" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="126" t="s">
         <v>205</v>
       </c>
@@ -16003,7 +17274,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21.75" thickBot="1">
+    <row r="65" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="113"/>
       <c r="B65" s="128" t="s">
         <v>221</v>
@@ -16012,35 +17283,35 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B66" s="33"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B67" s="33" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B68" s="33"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B69" s="33"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B70" s="34" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B71" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.25" thickBot="1">
+    <row r="72" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B72" s="122"/>
       <c r="C72" s="123"/>
     </row>
-    <row r="73" spans="1:3" ht="14.25" thickBot="1">
+    <row r="73" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B73" s="126" t="s">
         <v>205</v>
       </c>
@@ -16048,7 +17319,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21.75" thickBot="1">
+    <row r="74" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="113"/>
       <c r="B74" s="128" t="s">
         <v>224</v>
@@ -16057,26 +17328,26 @@
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B75" s="33"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B76" s="33" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B77" s="33"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B78" s="35"/>
       <c r="C78" s="35"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B79" s="35"/>
       <c r="C79" s="35"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
     </row>
@@ -16106,7 +17377,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -16119,7 +17390,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -16130,35 +17401,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>40</v>
       </c>
@@ -16184,7 +17455,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="73.5">
+    <row r="11" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>78</v>
@@ -16211,7 +17482,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="63">
+    <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64"/>
       <c r="C12" s="46"/>
@@ -16232,7 +17503,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="94.5">
+    <row r="13" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -16253,7 +17524,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -16274,7 +17545,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="63">
+    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -16294,7 +17565,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="63">
+    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -16314,7 +17585,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -16324,7 +17595,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -16334,7 +17605,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -16344,7 +17615,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -16354,7 +17625,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -16365,7 +17636,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -16376,7 +17647,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -16386,7 +17657,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -16397,7 +17668,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -16408,7 +17679,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -16418,7 +17689,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -16428,7 +17699,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -16438,7 +17709,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -16448,7 +17719,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -16458,7 +17729,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -16468,7 +17739,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="114"/>
       <c r="D32" s="46"/>
@@ -16478,7 +17749,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -16488,7 +17759,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -16498,7 +17769,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -16508,7 +17779,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="68"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -16518,7 +17789,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="72"/>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -16528,7 +17799,7 @@
       <c r="H37" s="47"/>
       <c r="I37" s="77"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -16538,7 +17809,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -16548,7 +17819,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="6" customHeight="1">
+    <row r="40" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -16558,7 +17829,7 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>48</v>
       </c>
@@ -16568,7 +17839,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -16578,7 +17849,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="120"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -16588,7 +17859,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -16598,7 +17869,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -16608,7 +17879,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -16618,7 +17889,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -16636,7 +17907,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -16654,7 +17925,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -16667,7 +17938,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -16678,35 +17949,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>40</v>
       </c>
@@ -16732,7 +18003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="73.5">
+    <row r="11" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>112</v>
@@ -16759,7 +18030,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="63">
+    <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64"/>
       <c r="C12" s="46"/>
@@ -16780,7 +18051,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="84">
+    <row r="13" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -16801,7 +18072,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -16822,7 +18093,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="63">
+    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -16842,7 +18113,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42">
+    <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -16862,7 +18133,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -16872,7 +18143,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -16882,7 +18153,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -16892,7 +18163,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -16902,7 +18173,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -16912,7 +18183,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -16922,7 +18193,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -16932,7 +18203,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -16943,7 +18214,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -16954,7 +18225,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -16964,7 +18235,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
@@ -16975,7 +18246,7 @@
       <c r="H27" s="57"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="38"/>
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
@@ -16986,7 +18257,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -16996,7 +18267,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -17006,7 +18277,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -17016,7 +18287,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -17026,7 +18297,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -17036,7 +18307,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -17046,7 +18317,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="64"/>
       <c r="C35" s="114"/>
       <c r="D35" s="46"/>
@@ -17056,7 +18327,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="64"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -17066,7 +18337,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="68"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -17076,7 +18347,7 @@
       <c r="H37" s="46"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="68"/>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
@@ -17086,7 +18357,7 @@
       <c r="H38" s="46"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="68"/>
       <c r="C39" s="46"/>
       <c r="D39" s="46"/>
@@ -17096,7 +18367,7 @@
       <c r="H39" s="46"/>
       <c r="I39" s="76"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25" thickBot="1">
+    <row r="40" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="72"/>
       <c r="C40" s="47"/>
       <c r="D40" s="47"/>
@@ -17106,7 +18377,7 @@
       <c r="H40" s="47"/>
       <c r="I40" s="77"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -17116,7 +18387,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -17126,7 +18397,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9" ht="6" customHeight="1">
+    <row r="43" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -17136,7 +18407,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
     </row>
-    <row r="44" spans="1:9" ht="14.25">
+    <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="32" t="s">
         <v>48</v>
       </c>
@@ -17146,7 +18417,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -17156,7 +18427,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -17166,7 +18437,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -17176,7 +18447,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
@@ -17186,7 +18457,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
@@ -17196,7 +18467,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
@@ -17214,7 +18485,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -17232,7 +18503,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -17245,7 +18516,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -17256,35 +18527,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>40</v>
       </c>
@@ -17310,7 +18581,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="73.5">
+    <row r="11" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="118" t="s">
         <v>113</v>
@@ -17337,7 +18608,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="63">
+    <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B12" s="64"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -17357,7 +18628,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="84">
+    <row r="13" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="114"/>
       <c r="D13" s="46"/>
@@ -17377,7 +18648,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -17397,7 +18668,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="63">
+    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -17417,7 +18688,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42">
+    <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -17437,7 +18708,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -17447,7 +18718,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -17458,7 +18729,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
@@ -17469,7 +18740,7 @@
       <c r="H19" s="57"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="116"/>
@@ -17479,7 +18750,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -17490,7 +18761,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -17501,7 +18772,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="116"/>
@@ -17511,7 +18782,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -17521,7 +18792,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -17531,7 +18802,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -17541,7 +18812,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -17551,7 +18822,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -17561,7 +18832,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="114"/>
       <c r="D29" s="46"/>
@@ -17571,7 +18842,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -17581,7 +18852,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -17591,7 +18862,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -17601,7 +18872,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -17611,7 +18882,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1">
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="72"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -17621,7 +18892,7 @@
       <c r="H34" s="47"/>
       <c r="I34" s="77"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -17631,7 +18902,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -17641,7 +18912,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" ht="6" customHeight="1">
+    <row r="37" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -17651,7 +18922,7 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>48</v>
       </c>
@@ -17661,7 +18932,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -17671,7 +18942,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -17681,7 +18952,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -17691,7 +18962,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -17701,7 +18972,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -17711,7 +18982,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -17729,7 +19000,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -17747,7 +19018,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -17760,7 +19031,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -17771,35 +19042,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>40</v>
       </c>
@@ -17825,7 +19096,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="73.5">
+    <row r="11" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>116</v>
@@ -17852,7 +19123,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="63">
+    <row r="12" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B12" s="64"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -17872,7 +19143,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="94.5">
+    <row r="13" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -17892,7 +19163,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -17912,7 +19183,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="84">
+    <row r="15" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -17932,7 +19203,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="63">
+    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -17952,7 +19223,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -17962,7 +19233,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="118"/>
       <c r="C18" s="46"/>
       <c r="D18" s="116"/>
@@ -17972,7 +19243,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="118"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116"/>
@@ -17982,7 +19253,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="118"/>
       <c r="C20" s="46"/>
@@ -17993,7 +19264,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="118"/>
       <c r="C21" s="46"/>
@@ -18004,7 +19275,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="118"/>
       <c r="C22" s="46"/>
       <c r="D22" s="116"/>
@@ -18014,7 +19285,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="118"/>
       <c r="C23" s="46"/>
@@ -18025,7 +19296,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="118"/>
       <c r="C24" s="46"/>
@@ -18036,7 +19307,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="118"/>
       <c r="C25" s="46"/>
       <c r="D25" s="116"/>
@@ -18046,7 +19317,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="118"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -18056,7 +19327,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -18066,7 +19337,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -18076,7 +19347,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -18086,7 +19357,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -18096,7 +19367,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="114"/>
       <c r="D31" s="46"/>
@@ -18106,7 +19377,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -18116,7 +19387,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -18126,7 +19397,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="68"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -18136,7 +19407,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -18146,7 +19417,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" thickBot="1">
+    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="72"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
@@ -18156,7 +19427,7 @@
       <c r="H36" s="47"/>
       <c r="I36" s="77"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -18166,7 +19437,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -18176,7 +19447,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9" ht="6" customHeight="1">
+    <row r="39" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -18186,7 +19457,7 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25">
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
         <v>48</v>
       </c>
@@ -18196,7 +19467,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -18206,7 +19477,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -18216,7 +19487,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -18226,7 +19497,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -18236,7 +19507,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -18246,7 +19517,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -18264,7 +19535,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
